--- a/biology/Zoologie/Dyscophus_insularis/Dyscophus_insularis.xlsx
+++ b/biology/Zoologie/Dyscophus_insularis/Dyscophus_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dyscophus insularis est une espèce d'amphibiens de la famille des Microhylidae[1]. Comme les autres espèces du genre, cette espèce possède le nom vernaculaire de grenouille tomate.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dyscophus insularis est une espèce d'amphibiens de la famille des Microhylidae. Comme les autres espèces du genre, cette espèce possède le nom vernaculaire de grenouille tomate.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dyscophus insularis mesure de 40 à 50 mm du museau au cloaque ; les mâles sont en moyenne plus petits que les femelles[2]. Le dos est brun grisâtre et porte souvent des marques brunes allongées ; ses flancs sont parfois rougeâtres[réf. nécessaire] et une ligne claire court le long des bourrelets latéraux. Son ventre est clair avec des taches sombres qui sont plus nombreuses chez la femelle que chez le mâle. La peau de son dos est lisse. Les mâles ont un seul sac vocal de couleur noire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dyscophus insularis mesure de 40 à 50 mm du museau au cloaque ; les mâles sont en moyenne plus petits que les femelles. Le dos est brun grisâtre et porte souvent des marques brunes allongées ; ses flancs sont parfois rougeâtres[réf. nécessaire] et une ligne claire court le long des bourrelets latéraux. Son ventre est clair avec des taches sombres qui sont plus nombreuses chez la femelle que chez le mâle. La peau de son dos est lisse. Les mâles ont un seul sac vocal de couleur noire.
 La taille maximale des têtards est de 32 à 35 mm[réf. nécessaire]. Leur corps est sphérique ou légèrement ovalisé, aplati dans sa partie supérieure. Lors de leur métamorphose, les juvéniles mesurent de 13 à 15 mm[réf. nécessaire] et sont d'une coloration identique à celle des adultes.
-Les deux autres espèces du genre Dyscophus sont plus grandes en moyenne et ont une couleur tirant davantage vers l'orange ; de plus, elles vivent sur la côté est de Madagascar au lieu de la côte ouest[2].
+Les deux autres espèces du genre Dyscophus sont plus grandes en moyenne et ont une couleur tirant davantage vers l'orange ; de plus, elles vivent sur la côté est de Madagascar au lieu de la côte ouest.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Ouest de Madagascar. Elle se rencontre entre Ambanja et le parc national de Tsimanampetsotsa. Elle est présente du niveau de la mer jusqu'à 400 m d'altitude[2],[3].
-Elle vit dans les forêts sèches, où elle s'abrite parfois dans la litière. Elle se reproduit dans des mares temporaires peu profondes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Ouest de Madagascar. Elle se rencontre entre Ambanja et le parc national de Tsimanampetsotsa. Elle est présente du niveau de la mer jusqu'à 400 m d'altitude,.
+Elle vit dans les forêts sèches, où elle s'abrite parfois dans la litière. Elle se reproduit dans des mares temporaires peu profondes.
 </t>
         </is>
       </c>
